--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3928.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3928.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.465009011368334</v>
+        <v>0.5625942945480347</v>
       </c>
       <c r="B1">
-        <v>2.382465547268467</v>
+        <v>0.6419602036476135</v>
       </c>
       <c r="C1">
-        <v>6.339124225868667</v>
+        <v>1.135675549507141</v>
       </c>
       <c r="D1">
-        <v>3.902178858838102</v>
+        <v>1.971238851547241</v>
       </c>
       <c r="E1">
-        <v>1.089147696300312</v>
+        <v>3.833479642868042</v>
       </c>
     </row>
   </sheetData>
